--- a/Excel_files/Data.xlsx
+++ b/Excel_files/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7800" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7800" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1. Đăng nhập" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>tk</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>7,93725393319377</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1046,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1298,36 +1301,70 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>1111111111</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B17" s="7">
         <v>2222222222</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C17" s="7">
         <v>3333333333</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>2.5</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B18" s="7">
         <v>3.7</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C18" s="7">
         <v>4.8499999999999996</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
